--- a/data/trans_orig/P37B_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P37B_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>24979</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15378</v>
+        <v>16042</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37386</v>
+        <v>37937</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05463989832499593</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03363780621263308</v>
+        <v>0.03509127120096291</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08177784328511871</v>
+        <v>0.08298433897485194</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -762,19 +762,19 @@
         <v>29731</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20734</v>
+        <v>21868</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41377</v>
+        <v>41958</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06572389157427506</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04583437578324945</v>
+        <v>0.04834257900640414</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09146810302585408</v>
+        <v>0.09275201842196844</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -783,19 +783,19 @@
         <v>54710</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41593</v>
+        <v>42471</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71647</v>
+        <v>70968</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06015265598449655</v>
+        <v>0.06015265598449656</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04573045891381915</v>
+        <v>0.04669614799853894</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07877372308215812</v>
+        <v>0.07802762410770191</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6062</v>
+        <v>6784</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.004101041591930366</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01325981032145701</v>
+        <v>0.0148384166656533</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -833,19 +833,19 @@
         <v>1344</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>3769</v>
+        <v>3743</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.002970002662441719</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0007325338840471291</v>
+        <v>0.0007363536711302552</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.00833238097214477</v>
+        <v>0.00827330089189007</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -854,19 +854,19 @@
         <v>3218</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1001</v>
+        <v>1093</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7770</v>
+        <v>7577</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.003538505745732747</v>
+        <v>0.003538505745732748</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001101020161096062</v>
+        <v>0.001201673019797763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.008542767580622604</v>
+        <v>0.008330574571086744</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>12696</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6689</v>
+        <v>6112</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22007</v>
+        <v>21649</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02777160408109422</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01463237913971922</v>
+        <v>0.0133685228661066</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04813946153805435</v>
+        <v>0.04735513009520164</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>16</v>
@@ -904,19 +904,19 @@
         <v>9959</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5971</v>
+        <v>5772</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16513</v>
+        <v>16810</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02201478961960038</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01319932397918372</v>
+        <v>0.01276004934601917</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03650365016401096</v>
+        <v>0.03715957183843974</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>29</v>
@@ -925,19 +925,19 @@
         <v>22655</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14472</v>
+        <v>15168</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32570</v>
+        <v>32670</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0249083830105664</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01591141985687348</v>
+        <v>0.01667716904694525</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03580996236983338</v>
+        <v>0.03591944280162972</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>396650</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>380819</v>
+        <v>378837</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>411480</v>
+        <v>410626</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.867638113862172</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8330093292892282</v>
+        <v>0.8286733088013966</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9000758001929948</v>
+        <v>0.898209498392842</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>553</v>
@@ -975,19 +975,19 @@
         <v>378997</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>366085</v>
+        <v>363545</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>393438</v>
+        <v>391359</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.837816407692761</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8092726497311502</v>
+        <v>0.8036577395478404</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8697384761501518</v>
+        <v>0.8651433975282644</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>912</v>
@@ -996,19 +996,19 @@
         <v>775647</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>753565</v>
+        <v>753732</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>794384</v>
+        <v>792620</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.852805928799673</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8285266991703646</v>
+        <v>0.8287101151163556</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8734059743449708</v>
+        <v>0.8714666237737313</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>20961</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>13915</v>
+        <v>13995</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30967</v>
+        <v>30889</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04584934213980727</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03043801795667881</v>
+        <v>0.03061269373584298</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06773779419040214</v>
+        <v>0.06756601226127003</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>56</v>
@@ -1046,19 +1046,19 @@
         <v>32333</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>24822</v>
+        <v>24255</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>41772</v>
+        <v>41647</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.07147490845092197</v>
+        <v>0.07147490845092198</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05487231861450953</v>
+        <v>0.05361807803469919</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0923412195999927</v>
+        <v>0.09206448055476023</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>81</v>
@@ -1067,19 +1067,19 @@
         <v>53293</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>42543</v>
+        <v>43406</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>66529</v>
+        <v>67914</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05859452645953125</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04677469311269568</v>
+        <v>0.04772355783842828</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07314716822789374</v>
+        <v>0.07467000210345724</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>65797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49064</v>
+        <v>47654</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>91266</v>
+        <v>88113</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.08770356145481394</v>
+        <v>0.08770356145481392</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06540036556443889</v>
+        <v>0.06352095904461778</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.121652804947975</v>
+        <v>0.1174500265618902</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -1192,19 +1192,19 @@
         <v>55943</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44531</v>
+        <v>44224</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69382</v>
+        <v>69074</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08347695782421392</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06644785759045826</v>
+        <v>0.06599016739152931</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1035313798623468</v>
+        <v>0.1030713981696225</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -1213,19 +1213,19 @@
         <v>121739</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>97414</v>
+        <v>100733</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>143136</v>
+        <v>149606</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0857093706325637</v>
+        <v>0.08570937063256369</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06858320306329048</v>
+        <v>0.07092027116167536</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.100773567663074</v>
+        <v>0.1053285014011674</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>6216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1499</v>
+        <v>1726</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17061</v>
+        <v>21715</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.008285121236858567</v>
+        <v>0.008285121236858565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001998547866427139</v>
+        <v>0.002300900608829741</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02274082537276663</v>
+        <v>0.02894518523892619</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1263,19 +1263,19 @@
         <v>7314</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3461</v>
+        <v>3416</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14362</v>
+        <v>14131</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01091384575520279</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.005164704216844443</v>
+        <v>0.005097594097296694</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02143051316426561</v>
+        <v>0.02108601116476749</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -1284,19 +1284,19 @@
         <v>13530</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6626</v>
+        <v>7500</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>25953</v>
+        <v>26618</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.009525402741079492</v>
+        <v>0.00952540274107949</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004664902078408865</v>
+        <v>0.005280470164827098</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01827198319952191</v>
+        <v>0.01874011029866257</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>31457</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20469</v>
+        <v>21524</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>43995</v>
+        <v>45958</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04193101235620116</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02728452551159298</v>
+        <v>0.02869010322609678</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05864374608191802</v>
+        <v>0.06126038480454423</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>19</v>
@@ -1334,19 +1334,19 @@
         <v>12324</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7519</v>
+        <v>7524</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19155</v>
+        <v>19384</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01838977156625957</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01122034532625654</v>
+        <v>0.01122721941283094</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0285820348096667</v>
+        <v>0.02892407738141429</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -1355,19 +1355,19 @@
         <v>43781</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31387</v>
+        <v>30888</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>58286</v>
+        <v>56530</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03082381366176861</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02209738513096699</v>
+        <v>0.02174635592211121</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04103597795023511</v>
+        <v>0.03979928780336016</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>599599</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>570348</v>
+        <v>570277</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>624086</v>
+        <v>621979</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.7992362517304691</v>
+        <v>0.799236251730469</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7602466978401839</v>
+        <v>0.760151958512063</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.831876406506752</v>
+        <v>0.8290679755619885</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>674</v>
@@ -1405,19 +1405,19 @@
         <v>531279</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>512601</v>
+        <v>512313</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>549834</v>
+        <v>550165</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7927656771837625</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.76489514764825</v>
+        <v>0.7644644748733165</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8204528658618963</v>
+        <v>0.8209464535773522</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1175</v>
@@ -1426,19 +1426,19 @@
         <v>1130878</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1100973</v>
+        <v>1095649</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1164325</v>
+        <v>1161765</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.7961833133658899</v>
+        <v>0.7961833133658898</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7751292630780151</v>
+        <v>0.7713806240328714</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8197312784259938</v>
+        <v>0.8179292347311317</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>47147</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34823</v>
+        <v>35784</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63964</v>
+        <v>64213</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.06284405322165734</v>
+        <v>0.06284405322165731</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04641697860139799</v>
+        <v>0.0476987120891757</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.08526141484663134</v>
+        <v>0.08559235761511093</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>93</v>
@@ -1476,19 +1476,19 @@
         <v>63299</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52482</v>
+        <v>51173</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>77211</v>
+        <v>77237</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.09445374767056143</v>
+        <v>0.09445374767056144</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07831259659647684</v>
+        <v>0.07635992882836681</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1152122937335961</v>
+        <v>0.1152513533506794</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>136</v>
@@ -1497,19 +1497,19 @@
         <v>110446</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>92026</v>
+        <v>92613</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>133537</v>
+        <v>135036</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07775809959869838</v>
+        <v>0.07775809959869837</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06479008204663959</v>
+        <v>0.0652031633286291</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09401561177420975</v>
+        <v>0.09507085661091334</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>100136</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>78977</v>
+        <v>78511</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>125172</v>
+        <v>125441</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1863360251821414</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1469633702262126</v>
+        <v>0.1460953502012851</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2329244059739965</v>
+        <v>0.2334247918994168</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>113</v>
@@ -1622,19 +1622,19 @@
         <v>97314</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>82156</v>
+        <v>81049</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>117215</v>
+        <v>116492</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1843129682771574</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1556046304983521</v>
+        <v>0.1535074422042646</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2220068331540407</v>
+        <v>0.2206374966810496</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>182</v>
@@ -1643,19 +1643,19 @@
         <v>197450</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>170794</v>
+        <v>171005</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>229354</v>
+        <v>230737</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1853334346520048</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1603136337461983</v>
+        <v>0.1605115304916628</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2152796642898202</v>
+        <v>0.21657837940102</v>
       </c>
     </row>
     <row r="17">
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16691</v>
+        <v>13221</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.006088471698177338</v>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03105989707295302</v>
+        <v>0.02460234147108998</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -1693,19 +1693,19 @@
         <v>9322</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5383</v>
+        <v>5323</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>14820</v>
+        <v>15142</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0176564789462701</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01019519371209608</v>
+        <v>0.01008214616746195</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02806908784559061</v>
+        <v>0.028679769142229</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -1714,19 +1714,19 @@
         <v>12594</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7187</v>
+        <v>6731</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>26147</v>
+        <v>24335</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01182136754056137</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006746227180667319</v>
+        <v>0.00631838381840875</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02454286818220328</v>
+        <v>0.02284152119731307</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>15230</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8160</v>
+        <v>8540</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>26073</v>
+        <v>27446</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02834076013293251</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01518432319038859</v>
+        <v>0.01589191823971531</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04851766754084624</v>
+        <v>0.05107178588138719</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>25</v>
@@ -1764,19 +1764,19 @@
         <v>19566</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12695</v>
+        <v>12704</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29194</v>
+        <v>28869</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03705908882270562</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02404473643862923</v>
+        <v>0.02406208397629368</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05529279989420638</v>
+        <v>0.05467795378735323</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>38</v>
@@ -1785,19 +1785,19 @@
         <v>34797</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>24258</v>
+        <v>24430</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>48649</v>
+        <v>47903</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03266140665624603</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02276922651773174</v>
+        <v>0.02293077367322206</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04566355941667082</v>
+        <v>0.04496342295777229</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>366924</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>337719</v>
+        <v>335683</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>393302</v>
+        <v>390687</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.6827817630393868</v>
+        <v>0.6827817630393866</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6284366441620609</v>
+        <v>0.6246488115785834</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7318672144289542</v>
+        <v>0.7270018939504537</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>457</v>
@@ -1835,19 +1835,19 @@
         <v>374420</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>351354</v>
+        <v>355396</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>392541</v>
+        <v>394378</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7091537178990045</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6654679838030126</v>
+        <v>0.6731226906181158</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.743475857572293</v>
+        <v>0.7469550415109003</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>747</v>
@@ -1856,19 +1856,19 @@
         <v>741343</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>708343</v>
+        <v>706850</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>772802</v>
+        <v>773200</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.6958512284302534</v>
+        <v>0.6958512284302532</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6648763447273933</v>
+        <v>0.6634748977859656</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.7253792488402994</v>
+        <v>0.7257529437096538</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>51833</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>37761</v>
+        <v>38025</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>70622</v>
+        <v>71634</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.09645297994736225</v>
+        <v>0.09645297994736224</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07026714366978862</v>
+        <v>0.07075749080448504</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1314155100893862</v>
+        <v>0.1332992681189517</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>36</v>
@@ -1906,19 +1906,19 @@
         <v>27359</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>19261</v>
+        <v>18670</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>38381</v>
+        <v>37764</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05181774605486232</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03648100318039109</v>
+        <v>0.03536029374595809</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07269361262769213</v>
+        <v>0.07152473910214316</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>76</v>
@@ -1927,19 +1927,19 @@
         <v>79192</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>62110</v>
+        <v>62210</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>99386</v>
+        <v>101400</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07433256272093454</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05829899485343544</v>
+        <v>0.0583925832537333</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09328721428833166</v>
+        <v>0.09517772190093521</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>42408</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>30388</v>
+        <v>31123</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>58654</v>
+        <v>58893</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06864902678633299</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04919176351217808</v>
+        <v>0.05038100643196344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09494711428328867</v>
+        <v>0.09533464943166264</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>87</v>
@@ -2052,19 +2052,19 @@
         <v>59715</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>47845</v>
+        <v>48091</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72897</v>
+        <v>74031</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08838607917816918</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07081669662821273</v>
+        <v>0.07118139020343674</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1078965384500825</v>
+        <v>0.1095749786560141</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>127</v>
@@ -2073,19 +2073,19 @@
         <v>102123</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>84947</v>
+        <v>85416</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>119388</v>
+        <v>121729</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07895904697262132</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06567899747906802</v>
+        <v>0.06604113850790805</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09230782842431356</v>
+        <v>0.09411725201830572</v>
       </c>
     </row>
     <row r="23">
@@ -2105,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7110</v>
+        <v>8511</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003496803089583734</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01151017346808426</v>
+        <v>0.01377769422913183</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -2123,19 +2123,19 @@
         <v>3910</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1452</v>
+        <v>1703</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>7904</v>
+        <v>8142</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.005786592735859361</v>
+        <v>0.005786592735859362</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.002148496829878308</v>
+        <v>0.002521268967247077</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01169880651462206</v>
+        <v>0.01205185129159912</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8</v>
@@ -2144,19 +2144,19 @@
         <v>6070</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2794</v>
+        <v>2767</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>11667</v>
+        <v>11862</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004692917737646411</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.002160244590919153</v>
+        <v>0.002139175074241744</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.009020572906994675</v>
+        <v>0.009171147217900067</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>24816</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16465</v>
+        <v>16929</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>35547</v>
+        <v>36471</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.04017122208169562</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02665292868579016</v>
+        <v>0.02740426542201909</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.05754200242922938</v>
+        <v>0.0590378662164446</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>25</v>
@@ -2194,19 +2194,19 @@
         <v>17906</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>11913</v>
+        <v>11513</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>27710</v>
+        <v>26956</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02650387486982429</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01763316054578274</v>
+        <v>0.01704038366498104</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04101384640434282</v>
+        <v>0.03989778362504311</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>50</v>
@@ -2215,19 +2215,19 @@
         <v>42722</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>32000</v>
+        <v>32386</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>56601</v>
+        <v>56711</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03303182644905851</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0247417349354727</v>
+        <v>0.02504018484305158</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04376215970669581</v>
+        <v>0.04384748287344271</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>493282</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>468738</v>
+        <v>471837</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>513552</v>
+        <v>515103</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7985080408812816</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7587769631627002</v>
+        <v>0.7637926776583088</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8313200887878465</v>
+        <v>0.8338307207120175</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>645</v>
@@ -2265,19 +2265,19 @@
         <v>518553</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>497163</v>
+        <v>495930</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>537585</v>
+        <v>538655</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.7675238327281313</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.735863872209761</v>
+        <v>0.7340385325224882</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.7956932330238617</v>
+        <v>0.7972779093427255</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1065</v>
@@ -2286,19 +2286,19 @@
         <v>1011835</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>979924</v>
+        <v>982416</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1039799</v>
+        <v>1038903</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.7823228575432025</v>
+        <v>0.7823228575432026</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7576499765632294</v>
+        <v>0.7595770101060615</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8039437670158553</v>
+        <v>0.8032512569177983</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>55088</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>41244</v>
+        <v>41985</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>72715</v>
+        <v>73457</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.08917490716110602</v>
+        <v>0.08917490716110603</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06676426169787028</v>
+        <v>0.06796384272722966</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1177088094218324</v>
+        <v>0.1189091388193682</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>91</v>
@@ -2336,19 +2336,19 @@
         <v>75534</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>61678</v>
+        <v>60138</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>94900</v>
+        <v>93878</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1117996204880159</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09129107667433971</v>
+        <v>0.0890122404819637</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1404641141286488</v>
+        <v>0.1389506118144687</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>145</v>
@@ -2357,19 +2357,19 @@
         <v>130622</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>109728</v>
+        <v>108292</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>156191</v>
+        <v>152954</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1009933512974711</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08483881508448275</v>
+        <v>0.08372806505254606</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1207626302196533</v>
+        <v>0.11825974473395</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>233320</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>199444</v>
+        <v>198192</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>270606</v>
+        <v>265603</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.09875872750723126</v>
+        <v>0.09875872750723128</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08441967104333029</v>
+        <v>0.08389002550612497</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1145407252259511</v>
+        <v>0.112423172978816</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>323</v>
@@ -2482,19 +2482,19 @@
         <v>242703</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>216920</v>
+        <v>218745</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>270108</v>
+        <v>274964</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1043380351875231</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09325381116986027</v>
+        <v>0.09403834229692393</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1161194775851485</v>
+        <v>0.1182071954804906</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>499</v>
@@ -2503,19 +2503,19 @@
         <v>476023</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>431273</v>
+        <v>432894</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>520507</v>
+        <v>520710</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1015267206397345</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.09198238718889386</v>
+        <v>0.09232807723021573</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1110143804032535</v>
+        <v>0.111057589545594</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>13523</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>6140</v>
+        <v>5798</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>29246</v>
+        <v>28666</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.005723763132255925</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.002599086481070414</v>
+        <v>0.002454235774732017</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01237932282116826</v>
+        <v>0.01213359811160964</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -2553,19 +2553,19 @@
         <v>21889</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15193</v>
+        <v>15319</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>30531</v>
+        <v>31330</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.009410236223108456</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.00653140920946012</v>
+        <v>0.006585479339991883</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01312521153763573</v>
+        <v>0.01346895216092272</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>41</v>
@@ -2574,19 +2574,19 @@
         <v>35412</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>24215</v>
+        <v>24690</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>49398</v>
+        <v>50746</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.007552687576534676</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.005164602425965156</v>
+        <v>0.005265833012803192</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01053564197322268</v>
+        <v>0.01082310096976578</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>84200</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>65425</v>
+        <v>67903</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>104572</v>
+        <v>105585</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.03563961828273011</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.02769265810299231</v>
+        <v>0.02874167755744633</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04426273534394345</v>
+        <v>0.0446916606471902</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>85</v>
@@ -2624,19 +2624,19 @@
         <v>59756</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>47916</v>
+        <v>47450</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>74585</v>
+        <v>74025</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.02568900730151109</v>
+        <v>0.02568900730151108</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.02059915855034208</v>
+        <v>0.0203988953433638</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.03206406013299351</v>
+        <v>0.03182333410637025</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>164</v>
@@ -2645,19 +2645,19 @@
         <v>143955</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>122404</v>
+        <v>120988</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>171700</v>
+        <v>169445</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03070294433705067</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0261065095279716</v>
+        <v>0.0258044476734333</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.03662033921670121</v>
+        <v>0.03613942881263976</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>1856456</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1807406</v>
+        <v>1809924</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1899455</v>
+        <v>1901782</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.7857924952814197</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7650309525615271</v>
+        <v>0.7660965888871154</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.8039930523581506</v>
+        <v>0.8049778472897626</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2329</v>
@@ -2695,19 +2695,19 @@
         <v>1803249</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1764125</v>
+        <v>1761621</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1839914</v>
+        <v>1836512</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.7752170987424524</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.7583976813518861</v>
+        <v>0.7573213546987252</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.790979514610244</v>
+        <v>0.7895169034771291</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3899</v>
@@ -2716,19 +2716,19 @@
         <v>3659705</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3594760</v>
+        <v>3596901</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>3717626</v>
+        <v>3712621</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.7805458541799151</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.7666943230963744</v>
+        <v>0.7671510974435815</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.7928993117805313</v>
+        <v>0.7918318545868384</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>175029</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>148622</v>
+        <v>147696</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>207309</v>
+        <v>205073</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07408539579636297</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0629080996067066</v>
+        <v>0.06251624792123074</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08774873613156497</v>
+        <v>0.08680258886983751</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>276</v>
@@ -2766,19 +2766,19 @@
         <v>198524</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>176543</v>
+        <v>175831</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>224480</v>
+        <v>225920</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08534562254540509</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07589603992968412</v>
+        <v>0.07558960874436496</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09650398917882572</v>
+        <v>0.09712291789144162</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>438</v>
@@ -2787,19 +2787,19 @@
         <v>373553</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>339091</v>
+        <v>336546</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>416368</v>
+        <v>416074</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07967179326676524</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07232172993646278</v>
+        <v>0.0717789089275904</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08880348550069886</v>
+        <v>0.08874078052020151</v>
       </c>
     </row>
     <row r="33">
